--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.3_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1473384106733774</v>
+        <v>0.1270730331643416</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2932815792964595</v>
+        <v>0.3326171995683959</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29328157929645954, 'ngram_match_score': 0.14733841067337738, 'weighted_ngram_match_score': 0.17230805303260732, 'syntax_match_score': 0.5439560439560439, 'dataflow_match_score': 0.30952380952380953}</t>
+          <t>{'codebleu': 0.3326171995683959, 'ngram_match_score': 0.12707303316434163, 'weighted_ngram_match_score': 0.15302946474294168, 'syntax_match_score': 0.5384615384615384, 'dataflow_match_score': 0.5119047619047619}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8550709593080587</v>
+        <v>0.8882556294488401</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
